--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_5_35.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_5_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1899322.953085461</v>
+        <v>1937824.182499014</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17298407.14104212</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484457</v>
+        <v>278692.0725916848</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5960123.589863892</v>
+        <v>6047293.721681487</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +659,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>286.2721000371766</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>6.100851113197347</v>
       </c>
     </row>
     <row r="3">
@@ -738,7 +738,7 @@
         <v>120.0908620689655</v>
       </c>
       <c r="C3" t="n">
-        <v>105.3918965517242</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D3" t="n">
         <v>94.13938596491228</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>41.26176538196641</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -883,7 +883,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>152.355512532834</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>320.0331481255878</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>333.9684384635485</v>
       </c>
     </row>
     <row r="6">
@@ -1072,7 +1072,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>8.129390960577833</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>116.3284606407776</v>
       </c>
     </row>
     <row r="8">
@@ -1136,10 +1136,10 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>325.5800738246913</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
@@ -1148,10 +1148,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>246.2474125329952</v>
       </c>
       <c r="X8" t="n">
         <v>14.9510387864824</v>
@@ -1309,7 +1309,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,19 +1342,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>122.9742767430572</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>163.293878347428</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1427,7 +1427,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>88.01364999380087</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1540,10 +1540,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>43.48898701015855</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1607,7 +1607,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>245.5992725947013</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1765,13 +1765,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
@@ -1780,10 +1780,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225814</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1831,7 +1831,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>198.1733121300834</v>
       </c>
     </row>
     <row r="17">
@@ -1904,13 +1904,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>250.9971266564229</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633438</v>
       </c>
     </row>
     <row r="18">
@@ -2014,7 +2014,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>24.34318456170527</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2144,7 +2144,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864838</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -2248,13 +2248,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>60.78001549303703</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2378,7 +2378,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>400.8069000430932</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
         <v>414.9510387864824</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2536,7 +2536,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>129.7139627068452</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
@@ -2713,7 +2713,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>10.04027365719937</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
@@ -2728,7 +2728,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>10.04027365720022</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225723</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3035,7 +3035,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932887</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
         <v>423.5887552948843</v>
@@ -3199,7 +3199,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225657</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.3484266092795</v>
+        <v>433.76104808841</v>
       </c>
       <c r="D35" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>429.0243759141563</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.1761338157529</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>396.9712315838373</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>285.8262315320845</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.40273359886996</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>217.4539333765604</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>256.2174581770219</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>358.5781590863803</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.3942785639456</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.538417307351</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>403.7906409842117</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.4878110526658</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>170.4234729224759</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>163.8065913913611</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>167.6478022326387</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.5273620187299</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.5227407452992</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>26.24351759540746</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
-        <v>243.0080304781979</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>275.2360492602943</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>283.6733315691424</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>268.89351889044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.5252156407903</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.7328524999014</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800573</v>
       </c>
       <c r="C38" t="n">
-        <v>433.3484266092795</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.0243759141563</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.1761338157529</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>396.9712315838373</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>285.8262315320845</v>
+        <v>286.2388530112158</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.40273359886996</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.4539333765604</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>256.2174581770219</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.5781590863803</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.3942785639456</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.538417307351</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>403.7906409842117</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.4878110526658</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.4234729224759</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>163.8065913913611</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>167.6478022326387</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.5273620187299</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.5227407452992</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.36072825394001</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>20.79102160255044</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.2363335358519</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
-        <v>243.0080304781979</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>275.2360492602943</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>44.52876577220866</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>268.89351889044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.5252156407903</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.7328524999014</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800572</v>
       </c>
       <c r="C41" t="n">
-        <v>433.3484266092795</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869772997</v>
       </c>
       <c r="E41" t="n">
-        <v>429.0243759141563</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>302.0087766306968</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>396.9712315838373</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>285.8262315320845</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.40273359886996</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>217.4539333765604</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.2174581770219</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.5781590863803</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.3942785639456</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.538417307351</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>403.7906409842117</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.4878110526658</v>
+        <v>189.900432531797</v>
       </c>
       <c r="C43" t="n">
-        <v>170.4234729224759</v>
+        <v>170.8360944016071</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704923</v>
       </c>
       <c r="E43" t="n">
-        <v>41.58002499360679</v>
+        <v>168.0604237117699</v>
       </c>
       <c r="F43" t="n">
-        <v>174.5273620187299</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.5227407452992</v>
+        <v>60.94899222871339</v>
       </c>
       <c r="H43" t="n">
-        <v>138.0905310873978</v>
+        <v>138.503152566529</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307121</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>20.79102160255044</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.2363335358519</v>
+        <v>157.6489550149686</v>
       </c>
       <c r="T43" t="n">
-        <v>243.0080304781979</v>
+        <v>243.4206519573291</v>
       </c>
       <c r="U43" t="n">
-        <v>275.2360492602943</v>
+        <v>275.6486707394255</v>
       </c>
       <c r="V43" t="n">
-        <v>283.6733315691424</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>268.89351889044</v>
+        <v>269.3061403695712</v>
       </c>
       <c r="X43" t="n">
-        <v>242.5252156407903</v>
+        <v>242.9378371199215</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.7328524999014</v>
+        <v>225.1454739790326</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.3484266092795</v>
+        <v>433.7610480884107</v>
       </c>
       <c r="D44" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.0243759141563</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.1761338157529</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>396.9712315838373</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>97.25183455924268</v>
+        <v>286.2388530112109</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791312025</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.4539333765604</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>256.2174581770219</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.5781590863803</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.3942785639456</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.538417307351</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>403.7906409842117</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.4878110526658</v>
+        <v>189.900432531797</v>
       </c>
       <c r="C46" t="n">
-        <v>170.4234729224759</v>
+        <v>170.8360944016071</v>
       </c>
       <c r="D46" t="n">
-        <v>163.8065913913611</v>
+        <v>164.2192128704923</v>
       </c>
       <c r="E46" t="n">
-        <v>167.6478022326387</v>
+        <v>168.0604237117699</v>
       </c>
       <c r="F46" t="n">
-        <v>174.5273620187299</v>
+        <v>174.9399834978611</v>
       </c>
       <c r="G46" t="n">
-        <v>163.5227407452992</v>
+        <v>163.9353622244304</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>26.24351759540767</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149831</v>
       </c>
       <c r="T46" t="n">
-        <v>243.0080304781979</v>
+        <v>103.8284742946075</v>
       </c>
       <c r="U46" t="n">
-        <v>275.2360492602943</v>
+        <v>275.6486707394255</v>
       </c>
       <c r="V46" t="n">
-        <v>283.6733315691424</v>
+        <v>284.0859530482737</v>
       </c>
       <c r="W46" t="n">
-        <v>268.89351889044</v>
+        <v>269.3061403695712</v>
       </c>
       <c r="X46" t="n">
-        <v>242.5252156407903</v>
+        <v>242.9378371199215</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.7328524999014</v>
+        <v>225.1454739790326</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>153.4764845146214</v>
+        <v>945.0851728516207</v>
       </c>
       <c r="C2" t="n">
-        <v>119.3744157384487</v>
+        <v>516.503498588889</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>87.92182432615731</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>58.18748352485655</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4331,49 +4331,49 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L2" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O2" t="n">
-        <v>1277.130531135514</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P2" t="n">
-        <v>1277.130531135514</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="V2" t="n">
-        <v>1408.019692669128</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="W2" t="n">
-        <v>1003.164238080161</v>
+        <v>1392.64927858873</v>
       </c>
       <c r="X2" t="n">
-        <v>988.0621786998757</v>
+        <v>1377.547219208445</v>
       </c>
       <c r="Y2" t="n">
-        <v>579.7760549995292</v>
+        <v>1371.384743336529</v>
       </c>
     </row>
     <row r="3">
@@ -4386,7 +4386,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4395,10 +4395,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>718.8484307043673</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C4" t="n">
-        <v>546.2867191875922</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D4" t="n">
-        <v>380.4087263891149</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E4" t="n">
-        <v>210.6507226398521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F4" t="n">
         <v>33.94366860160834</v>
@@ -4486,22 +4486,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M4" t="n">
-        <v>813.4916901053949</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N4" t="n">
-        <v>1233.544589050298</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1653.213838276079</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
         <v>1697.183430080417</v>
@@ -4510,28 +4510,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1697.183430080417</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V4" t="n">
-        <v>1655.504879189542</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W4" t="n">
-        <v>1383.478474775834</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="X4" t="n">
-        <v>1138.086720109246</v>
+        <v>187.8381257054811</v>
       </c>
       <c r="Y4" t="n">
-        <v>910.6670494233545</v>
+        <v>33.94366860160834</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>442.6402219259112</v>
+        <v>1783.484246000438</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>1345.341773183862</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>909.4319883583062</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>879.6976475570054</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>451.8302179662131</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947702</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947702</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947702</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>50.43238658947702</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>102.818191380922</v>
       </c>
       <c r="L5" t="n">
-        <v>1277.130531135514</v>
+        <v>726.9189754257001</v>
       </c>
       <c r="M5" t="n">
-        <v>1277.130531135514</v>
+        <v>1351.019759470478</v>
       </c>
       <c r="N5" t="n">
-        <v>1697.183430080417</v>
+        <v>1975.120543515256</v>
       </c>
       <c r="O5" t="n">
-        <v>1697.183430080417</v>
+        <v>1975.120543515256</v>
       </c>
       <c r="P5" t="n">
-        <v>1697.183430080417</v>
+        <v>1975.120543515256</v>
       </c>
       <c r="Q5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473851</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473851</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473851</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473851</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473851</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2159.002379407677</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>2158.187328859115</v>
       </c>
       <c r="X5" t="n">
-        <v>1277.225916111166</v>
+        <v>2143.08526947883</v>
       </c>
       <c r="Y5" t="n">
-        <v>868.939792410819</v>
+        <v>1805.743412444942</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>92.16803877326456</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947702</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993462</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.0543847161469</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1025.155168760925</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1024.341879988165</v>
+        <v>1129.490547201358</v>
       </c>
       <c r="C7" t="n">
-        <v>851.7801684713901</v>
+        <v>956.9288356845833</v>
       </c>
       <c r="D7" t="n">
-        <v>685.9021756729128</v>
+        <v>791.050842886106</v>
       </c>
       <c r="E7" t="n">
-        <v>516.14417192365</v>
+        <v>621.2928391368433</v>
       </c>
       <c r="F7" t="n">
-        <v>339.4371178854062</v>
+        <v>444.5857850985995</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>278.9945101244272</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947702</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947702</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>266.2978593068769</v>
       </c>
       <c r="L7" t="n">
-        <v>452.1535503695694</v>
+        <v>684.507741074838</v>
       </c>
       <c r="M7" t="n">
-        <v>509.954387939391</v>
+        <v>1143.991608255751</v>
       </c>
       <c r="N7" t="n">
-        <v>930.0072868842942</v>
+        <v>1586.250411413396</v>
       </c>
       <c r="O7" t="n">
-        <v>1349.676536110076</v>
+        <v>2005.919660639177</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2353.426554609519</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473851</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473851</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473851</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473851</v>
       </c>
       <c r="U7" t="n">
-        <v>1697.183430080417</v>
+        <v>2243.186328726956</v>
       </c>
       <c r="V7" t="n">
-        <v>1697.183430080417</v>
+        <v>1956.230820597387</v>
       </c>
       <c r="W7" t="n">
-        <v>1688.971924059632</v>
+        <v>1684.204416183678</v>
       </c>
       <c r="X7" t="n">
-        <v>1443.580169393044</v>
+        <v>1438.812661517091</v>
       </c>
       <c r="Y7" t="n">
-        <v>1216.160498707152</v>
+        <v>1321.309165920346</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1654.761434047123</v>
+        <v>2076.000019869234</v>
       </c>
       <c r="C8" t="n">
-        <v>1620.659365270951</v>
+        <v>2041.897951093061</v>
       </c>
       <c r="D8" t="n">
-        <v>1291.790603831868</v>
+        <v>1605.988166267505</v>
       </c>
       <c r="E8" t="n">
-        <v>863.2089295691367</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F8" t="n">
-        <v>435.3414999783445</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>874.0494664914149</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M8" t="n">
-        <v>874.0494664914149</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N8" t="n">
-        <v>874.0494664914149</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>874.0494664914149</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="W8" t="n">
-        <v>1696.368379531855</v>
+        <v>2117.606965353965</v>
       </c>
       <c r="X8" t="n">
-        <v>1681.26632015157</v>
+        <v>2102.50490597368</v>
       </c>
       <c r="Y8" t="n">
-        <v>1677.020600491627</v>
+        <v>2098.259186313737</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1113.00182921349</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C10" t="n">
-        <v>940.4401176967148</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D10" t="n">
-        <v>774.5621248982375</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E10" t="n">
-        <v>604.8041211489747</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F10" t="n">
-        <v>428.0970671107308</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G10" t="n">
-        <v>262.5057921365585</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>689.2685070454004</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1109.321405990304</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1528.990655216085</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>2545.844385276825</v>
       </c>
       <c r="U10" t="n">
-        <v>1697.183430080417</v>
+        <v>2267.41138452993</v>
       </c>
       <c r="V10" t="n">
-        <v>1697.183430080417</v>
+        <v>1980.45587640036</v>
       </c>
       <c r="W10" t="n">
-        <v>1697.183430080417</v>
+        <v>1708.429471986652</v>
       </c>
       <c r="X10" t="n">
-        <v>1532.240118618369</v>
+        <v>1463.037717320064</v>
       </c>
       <c r="Y10" t="n">
-        <v>1304.820447932477</v>
+        <v>1235.618046634173</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2523.314042074141</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>2085.171569257564</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1649.261784432008</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.487039590304</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>787.6196099995113</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G11" t="n">
-        <v>386.2217786227752</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H11" t="n">
-        <v>97.09162406599148</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>96.67483469313149</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>531.9295221460494</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1366.279814104227</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>2441.339780357087</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2441.339780357087</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
-        <v>2441.339780357087</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>3289.779009111527</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>4118.088883944924</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4664.587669903518</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>4833.741734656574</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>4750.089860840411</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>4530.02263371345</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>4270.800331030467</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>4181.897654269052</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.042199680084</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>3357.899736259395</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.613612559048</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.8465796844242</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>496.3901185210665</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>401.2998296676198</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>307.1794149945735</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>223.7955766107351</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>138.410486876919</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>96.67483469313149</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>122.7385078535891</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>447.2968328198014</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>1102.002879445525</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.002879445525</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>1102.002879445525</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>1102.002879445525</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>1102.002879445525</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1102.002879445525</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1642.741818077601</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1759.91459617194</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1696.459158620323</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1566.280514950925</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1389.943967950893</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1190.826450012893</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>1005.503695746087</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>850.6362599849666</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.1504807641874</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>947.1708717700628</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C13" t="n">
-        <v>774.6091602532878</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D13" t="n">
-        <v>608.7311674548105</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E13" t="n">
-        <v>438.9731637055477</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F13" t="n">
-        <v>262.2661096673038</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G13" t="n">
-        <v>96.67483469313149</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H13" t="n">
-        <v>96.67483469313149</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
-        <v>96.67483469313149</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>183.2545198578213</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>458.0129744289569</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>876.222856196918</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.706723377831</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1777.965526535475</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2197.634775761257</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2545.141669731599</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2713.334444595931</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2713.334444595931</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2695.095275553247</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T13" t="n">
-        <v>2449.215829131702</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U13" t="n">
-        <v>2170.782828384807</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V13" t="n">
-        <v>1883.827320255238</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W13" t="n">
-        <v>1611.800915841529</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X13" t="n">
-        <v>1366.409161174942</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y13" t="n">
-        <v>1138.98949048905</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2333.251642585546</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C14" t="n">
-        <v>2085.171569257564</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D14" t="n">
-        <v>1649.261784432008</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.487039590304</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>787.6196099995113</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>386.2217786227752</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>97.09162406599148</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>96.67483469313149</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>531.9295221460494</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1234.539376288361</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>2309.599342541221</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2309.599342541221</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>2309.599342541221</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>3289.779009111527</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>4118.088883944924</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4664.587669903518</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>4833.741734656574</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>4833.741734656574</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>4613.674507529613</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>4354.45220484663</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>3991.835254780456</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>3586.97980019149</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3167.8373367708</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2759.551213070454</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.8465796844242</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>496.3901185210665</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>401.2998296676198</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>307.1794149945735</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>223.7955766107351</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>138.410486876919</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>96.67483469313149</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>122.7385078535891</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>447.2968328198014</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1102.002879445525</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.002879445525</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.002879445525</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>1102.002879445525</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>1102.002879445525</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>1102.002879445525</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.741818077601</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.91459617194</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1696.459158620323</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1566.280514950925</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1389.943967950893</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.826450012893</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>1005.503695746087</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>850.6362599849666</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>724.1504807641874</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>947.1708717700628</v>
+        <v>838.9992856166232</v>
       </c>
       <c r="C16" t="n">
-        <v>774.6091602532878</v>
+        <v>838.9992856166232</v>
       </c>
       <c r="D16" t="n">
-        <v>608.7311674548105</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="E16" t="n">
-        <v>438.9731637055477</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F16" t="n">
-        <v>262.2661096673038</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G16" t="n">
-        <v>96.67483469313149</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H16" t="n">
-        <v>96.67483469313149</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>96.67483469313149</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>183.2545198578214</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>458.012974428957</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>876.222856196918</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.706723377831</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1777.965526535475</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.634775761257</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2545.141669731599</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2713.334444595931</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2713.334444595931</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2695.095275553247</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2449.215829131702</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U16" t="n">
-        <v>2170.782828384807</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V16" t="n">
-        <v>1883.827320255238</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W16" t="n">
-        <v>1611.800915841529</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X16" t="n">
-        <v>1366.409161174942</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y16" t="n">
-        <v>1138.98949048905</v>
+        <v>1030.81790433561</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2525.811823092179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2087.669350275602</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1651.759565450047</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1217.984820608342</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>790.1173910175501</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>388.7195596408139</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>99.58940508403015</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>99.17261571117015</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>534.427303164088</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1368.777595122266</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2443.837561375125</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2443.837561375125</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N17" t="n">
-        <v>2443.837561375125</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3424.017227945432</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>4242.977934846856</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4789.476720805451</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>4958.630785558507</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>4874.978911742344</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4654.911684615383</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4395.6893819324</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4033.072431866226</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3779.539980698122</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3360.397517277433</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2952.111393577087</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>605.344360702463</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>498.8878995391052</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>403.7976106856585</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>309.6771960126122</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>226.2933576287738</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>140.9082678949577</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>99.17261571117015</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>125.2362888716278</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>449.7946138378401</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>449.7946138378401</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>449.7946138378401</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>449.7946138378401</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>449.7946138378401</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>449.7946138378401</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1104.500660463564</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1645.239599095639</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1762.412377189979</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1698.956939638362</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1568.778295968964</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1392.441748968932</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1193.324231030931</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1008.001476764125</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>853.1340410030053</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>726.6482617822261</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>808.6664531287829</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>636.1047416120078</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>470.2267488135305</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>300.4687450642678</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>123.761691026024</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>99.17261571117015</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>99.17261571117015</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
-        <v>99.17261571117015</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>185.75230087586</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>460.5107554469956</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>878.7206372149567</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1338.20450439587</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1780.463307553514</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2200.132556779296</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2547.639450749637</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2715.83222561397</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2715.83222561397</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2556.590856911967</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2310.711410490422</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2032.278409743527</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1745.322901613958</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1473.296497200249</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1227.904742533662</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1000.48507184777</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5732,64 +5732,64 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I20" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J20" t="n">
-        <v>537.5155277236975</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681875</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.89962142363</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993937</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827333</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785928</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538984</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722821</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
@@ -5805,10 +5805,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>608.4325852620724</v>
+        <v>608.4325852620725</v>
       </c>
       <c r="C21" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987148</v>
       </c>
       <c r="D21" t="n">
         <v>406.885835245268</v>
@@ -5820,13 +5820,13 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G21" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H21" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I21" t="n">
-        <v>128.3245134312372</v>
+        <v>128.3245134312373</v>
       </c>
       <c r="J21" t="n">
         <v>452.8828383974496</v>
@@ -5853,16 +5853,16 @@
         <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
-        <v>1765.500601749588</v>
+        <v>1765.500601749589</v>
       </c>
       <c r="S21" t="n">
-        <v>1702.045164197971</v>
+        <v>1702.045164197972</v>
       </c>
       <c r="T21" t="n">
         <v>1571.866520528573</v>
       </c>
       <c r="U21" t="n">
-        <v>1395.529973528541</v>
+        <v>1395.529973528542</v>
       </c>
       <c r="V21" t="n">
         <v>1196.412455590541</v>
@@ -5871,10 +5871,10 @@
         <v>1011.089701323735</v>
       </c>
       <c r="X21" t="n">
-        <v>856.2222655626148</v>
+        <v>856.2222655626149</v>
       </c>
       <c r="Y21" t="n">
-        <v>729.7364863418355</v>
+        <v>729.7364863418356</v>
       </c>
     </row>
     <row r="22">
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>811.754677688392</v>
+        <v>952.756877347711</v>
       </c>
       <c r="C22" t="n">
-        <v>639.1929661716169</v>
+        <v>780.1951658309359</v>
       </c>
       <c r="D22" t="n">
-        <v>473.3149733731396</v>
+        <v>614.3171730324586</v>
       </c>
       <c r="E22" t="n">
-        <v>303.5569696238769</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F22" t="n">
-        <v>303.5569696238769</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I22" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J22" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L22" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745663</v>
       </c>
       <c r="M22" t="n">
         <v>1341.292728955479</v>
@@ -5935,25 +5935,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1748.411126173567</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1476.384721759859</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1230.992967093271</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5975,55 +5975,55 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.20561557716</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004238</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436401</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
-        <v>102.2608402707799</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236978</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681876</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934735</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934735</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423643</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993949</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.389162827345</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.88794878594</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
-        <v>5113.042013538997</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S23" t="n">
-        <v>5029.390139722834</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T23" t="n">
-        <v>4809.322912595872</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U23" t="n">
-        <v>4550.100609912889</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V23" t="n">
-        <v>4187.483659846715</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
         <v>3782.628205257733</v>
@@ -6042,64 +6042,64 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>608.4325852620727</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C24" t="n">
-        <v>501.976124098715</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D24" t="n">
-        <v>406.8858352452683</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E24" t="n">
-        <v>312.765420572222</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F24" t="n">
-        <v>229.3815821883836</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G24" t="n">
-        <v>143.9964924545675</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H24" t="n">
-        <v>102.2608402707799</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>128.3245134312375</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>452.8828383974499</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>1107.588885023174</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>1107.588885023174</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>1107.588885023174</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1107.588885023174</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1107.588885023174</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1107.588885023174</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
         <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
-        <v>1765.500601749589</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S24" t="n">
-        <v>1702.045164197972</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T24" t="n">
-        <v>1571.866520528574</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U24" t="n">
-        <v>1395.529973528542</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V24" t="n">
         <v>1196.412455590541</v>
@@ -6108,10 +6108,10 @@
         <v>1011.089701323735</v>
       </c>
       <c r="X24" t="n">
-        <v>856.2222655626151</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y24" t="n">
-        <v>729.7364863418359</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="25">
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477112</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309362</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324589</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831961</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>267.8521152449523</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707799</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707799</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
-        <v>102.2608402707799</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J25" t="n">
-        <v>188.8405254354698</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>463.5989800066054</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>881.8088617745665</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M25" t="n">
-        <v>1341.29272895548</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N25" t="n">
         <v>1783.551532113124</v>
@@ -6172,16 +6172,16 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W25" t="n">
         <v>1617.386921419177</v>
@@ -6233,7 +6233,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>790.3368563937644</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C28" t="n">
-        <v>790.3368563937644</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>624.4588635952871</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>454.7008598460243</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>277.9938058077805</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>112.4025308336081</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6394,7 +6394,7 @@
         <v>1341.292728955479</v>
       </c>
       <c r="N28" t="n">
-        <v>1783.551532113123</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O28" t="n">
         <v>2203.220781338905</v>
@@ -6424,10 +6424,10 @@
         <v>1454.96690046523</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.575145798643</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1554751127514</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="29">
@@ -6461,25 +6461,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>2758.053686176683</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>3738.23335274699</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4566.543227580386</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
         <v>5113.04201353898</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324586</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>267.8521152449521</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C32" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D32" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E32" t="n">
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6710,40 +6710,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477118</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6880,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130896</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.801834709351</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962456</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832887</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419178</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.995166752591</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066699</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2525.85493345824</v>
+        <v>2528.900047651787</v>
       </c>
       <c r="C35" t="n">
-        <v>2088.129250014523</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1652.636254561828</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E35" t="n">
-        <v>1219.278299092983</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F35" t="n">
-        <v>791.8276588750505</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G35" t="n">
-        <v>390.8466168711748</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.133251687251</v>
+        <v>102.6776296436394</v>
       </c>
       <c r="I35" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.3879391401689</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.738231098347</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.798197351206</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2582.520192247198</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>2582.520192247198</v>
+        <v>2588.899621423625</v>
       </c>
       <c r="O35" t="n">
-        <v>3562.699858817504</v>
+        <v>3569.079287993931</v>
       </c>
       <c r="P35" t="n">
-        <v>4391.009733650901</v>
+        <v>4397.389162827328</v>
       </c>
       <c r="Q35" t="n">
-        <v>4937.508519609495</v>
+        <v>4943.887948785922</v>
       </c>
       <c r="R35" t="n">
-        <v>5106.662584362552</v>
+        <v>5113.042013538979</v>
       </c>
       <c r="S35" t="n">
-        <v>5023.427499919248</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T35" t="n">
-        <v>4803.777062165147</v>
+        <v>4809.322912595854</v>
       </c>
       <c r="U35" t="n">
-        <v>4544.971548855024</v>
+        <v>4550.100609912871</v>
       </c>
       <c r="V35" t="n">
-        <v>4182.77138816171</v>
+        <v>4187.483659846697</v>
       </c>
       <c r="W35" t="n">
-        <v>3778.332722945604</v>
+        <v>3782.628205257731</v>
       </c>
       <c r="X35" t="n">
-        <v>3359.607048897774</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y35" t="n">
-        <v>2951.737714570288</v>
+        <v>2955.199618136695</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>608.3049966785438</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>501.8485355151861</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D36" t="n">
-        <v>406.7582466617393</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E36" t="n">
-        <v>312.6378319886931</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F36" t="n">
-        <v>229.2539936048547</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G36" t="n">
-        <v>143.8689038710386</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>128.1969248477086</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>452.755249813921</v>
+        <v>452.8828383974495</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1648.20023507172</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>1765.37301316606</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>1701.917575614443</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>1571.738931945045</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>1395.402384945013</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>1196.284867007012</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>1010.962112740206</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>856.0946769790862</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>729.608897758307</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>950.5453418998821</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>778.4004197559673</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>612.93921633035</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>443.5980019539472</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>267.3077372885634</v>
+        <v>267.8521152449519</v>
       </c>
       <c r="G37" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>189.1214321162809</v>
+        <v>188.8405254354694</v>
       </c>
       <c r="K37" t="n">
-        <v>464.2883819517565</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>882.9067589840578</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>1342.79912142931</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.466419851295</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
-        <v>2205.544164341417</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>2553.459553576099</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q37" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2695.552220073046</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2450.089563024361</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2172.073351650326</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1885.534632893617</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1613.925017852769</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1368.950052559041</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1141.947171246009</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2525.85493345824</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2088.129250014524</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1652.636254561828</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E38" t="n">
-        <v>1219.278299092983</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F38" t="n">
-        <v>791.8276588750509</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G38" t="n">
-        <v>390.8466168711748</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.133251687251</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.3879391401689</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.738231098347</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.798197351206</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2582.520192247198</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2582.520192247198</v>
+        <v>2588.899621423625</v>
       </c>
       <c r="O38" t="n">
-        <v>3562.699858817504</v>
+        <v>3569.079287993931</v>
       </c>
       <c r="P38" t="n">
-        <v>4391.009733650901</v>
+        <v>4397.389162827328</v>
       </c>
       <c r="Q38" t="n">
-        <v>4937.508519609495</v>
+        <v>4943.887948785922</v>
       </c>
       <c r="R38" t="n">
-        <v>5106.662584362552</v>
+        <v>5113.042013538979</v>
       </c>
       <c r="S38" t="n">
-        <v>5023.427499919248</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T38" t="n">
-        <v>4803.777062165147</v>
+        <v>4809.322912595854</v>
       </c>
       <c r="U38" t="n">
-        <v>4544.971548855024</v>
+        <v>4550.100609912871</v>
       </c>
       <c r="V38" t="n">
-        <v>4182.771388161711</v>
+        <v>4187.483659846697</v>
       </c>
       <c r="W38" t="n">
-        <v>3778.332722945604</v>
+        <v>3782.628205257731</v>
       </c>
       <c r="X38" t="n">
-        <v>3359.607048897775</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y38" t="n">
-        <v>2951.737714570288</v>
+        <v>2955.199618136695</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>608.3049966785438</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>501.8485355151861</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D39" t="n">
-        <v>406.7582466617393</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E39" t="n">
-        <v>312.6378319886931</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F39" t="n">
-        <v>229.2539936048547</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G39" t="n">
-        <v>143.8689038710386</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H39" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>128.1969248477086</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>452.755249813921</v>
+        <v>452.8828383974495</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1648.20023507172</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
-        <v>1765.37301316606</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S39" t="n">
-        <v>1701.917575614443</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T39" t="n">
-        <v>1571.738931945045</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U39" t="n">
-        <v>1395.402384945013</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V39" t="n">
-        <v>1196.284867007012</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W39" t="n">
-        <v>1010.962112740206</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X39" t="n">
-        <v>856.0946769790862</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y39" t="n">
-        <v>729.608897758307</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1038.788501752347</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>866.6435796084319</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>701.1823761828146</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>531.8411618064118</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>355.550897141028</v>
+        <v>267.8521152449519</v>
       </c>
       <c r="G40" t="n">
-        <v>190.3764115397157</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.3764115397157</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>189.121432116281</v>
+        <v>188.8405254354694</v>
       </c>
       <c r="K40" t="n">
-        <v>464.2883819517567</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>882.9067589840579</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>1342.799121429311</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.466419851296</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>2205.544164341417</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>2553.459553576099</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2701.059791783004</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2542.235212453861</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2296.772555405176</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2018.756344031141</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1973.777792746082</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1702.168177705234</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1457.193212411506</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1230.190331098474</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2400.965882556307</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>1963.240199112591</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1527.747203659894</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1094.38924819105</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>789.3298778570123</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G41" t="n">
-        <v>388.3488358531362</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H41" t="n">
-        <v>99.63547066921238</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>99.63547066921238</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>534.8901581221303</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1369.240450080308</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2444.300416333168</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2626.785206098322</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2626.785206098322</v>
+        <v>2588.899621423625</v>
       </c>
       <c r="O41" t="n">
-        <v>3606.964872668628</v>
+        <v>3569.079287993931</v>
       </c>
       <c r="P41" t="n">
-        <v>4435.274747502024</v>
+        <v>4397.389162827328</v>
       </c>
       <c r="Q41" t="n">
-        <v>4981.773533460619</v>
+        <v>4943.887948785922</v>
       </c>
       <c r="R41" t="n">
-        <v>4981.773533460619</v>
+        <v>5113.042013538979</v>
       </c>
       <c r="S41" t="n">
-        <v>4898.538449017316</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T41" t="n">
-        <v>4678.888011263214</v>
+        <v>4809.322912595854</v>
       </c>
       <c r="U41" t="n">
-        <v>4420.082497953091</v>
+        <v>4550.100609912871</v>
       </c>
       <c r="V41" t="n">
-        <v>4057.882337259778</v>
+        <v>4187.483659846697</v>
       </c>
       <c r="W41" t="n">
-        <v>3653.443672043671</v>
+        <v>3782.628205257731</v>
       </c>
       <c r="X41" t="n">
-        <v>3234.717997995842</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y41" t="n">
-        <v>2826.848663668355</v>
+        <v>2955.199618136695</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>605.8072156605052</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>499.3507544971475</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D42" t="n">
-        <v>404.2604656437007</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E42" t="n">
-        <v>310.1400509706544</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F42" t="n">
-        <v>226.756212586816</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G42" t="n">
-        <v>141.3711228529999</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>99.63547066921238</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>125.69914382967</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>450.2574687958823</v>
+        <v>452.8828383974495</v>
       </c>
       <c r="K42" t="n">
-        <v>1104.963515421606</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1104.963515421606</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1104.963515421606</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1104.963515421606</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1104.963515421606</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1104.963515421606</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1645.702454053682</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1762.875232148021</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1699.419794596404</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1569.241150927006</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1392.904603926974</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1193.787085988974</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1008.464331722168</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>853.5968959610476</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.1111167402684</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>794.7305532626565</v>
+        <v>1077.29236452335</v>
       </c>
       <c r="C43" t="n">
-        <v>622.5856311187415</v>
+        <v>904.7306530065747</v>
       </c>
       <c r="D43" t="n">
-        <v>622.5856311187415</v>
+        <v>738.8526602080976</v>
       </c>
       <c r="E43" t="n">
-        <v>580.585605872674</v>
+        <v>569.0946564588351</v>
       </c>
       <c r="F43" t="n">
-        <v>404.2953412072902</v>
+        <v>392.3876024205913</v>
       </c>
       <c r="G43" t="n">
-        <v>239.1208556059779</v>
+        <v>330.8229638057293</v>
       </c>
       <c r="H43" t="n">
-        <v>99.63547066921238</v>
+        <v>190.920789496104</v>
       </c>
       <c r="I43" t="n">
-        <v>99.63547066921238</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>186.6236510982421</v>
+        <v>188.8405254354694</v>
       </c>
       <c r="K43" t="n">
-        <v>461.7906009337177</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>880.4089779660188</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1340.301340411272</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1782.968638833257</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2203.046383323378</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2550.96177255806</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2719.563042686732</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2698.562010764964</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S43" t="n">
-        <v>2539.73743143582</v>
+        <v>2538.261260176962</v>
       </c>
       <c r="T43" t="n">
-        <v>2294.274774387135</v>
+        <v>2292.381813755418</v>
       </c>
       <c r="U43" t="n">
-        <v>2016.258563013101</v>
+        <v>2013.948813008524</v>
       </c>
       <c r="V43" t="n">
-        <v>1729.719844256391</v>
+        <v>2013.948813008524</v>
       </c>
       <c r="W43" t="n">
-        <v>1458.110229215543</v>
+        <v>1741.922408594815</v>
       </c>
       <c r="X43" t="n">
-        <v>1213.135263921815</v>
+        <v>1496.530653928228</v>
       </c>
       <c r="Y43" t="n">
-        <v>986.1323826087836</v>
+        <v>1269.110983242336</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2329.789739019136</v>
+        <v>2528.900047651784</v>
       </c>
       <c r="C44" t="n">
-        <v>1892.064055575419</v>
+        <v>2090.757574835207</v>
       </c>
       <c r="D44" t="n">
-        <v>1456.571060122723</v>
+        <v>1654.847790009651</v>
       </c>
       <c r="E44" t="n">
-        <v>1023.213104653878</v>
+        <v>1221.073045167946</v>
       </c>
       <c r="F44" t="n">
-        <v>595.7624644359462</v>
+        <v>793.2056155771543</v>
       </c>
       <c r="G44" t="n">
-        <v>194.78142243207</v>
+        <v>391.8077842004182</v>
       </c>
       <c r="H44" t="n">
-        <v>96.5472461096029</v>
+        <v>102.6776296436393</v>
       </c>
       <c r="I44" t="n">
-        <v>96.5472461096029</v>
+        <v>102.2608402707795</v>
       </c>
       <c r="J44" t="n">
-        <v>531.8019335625207</v>
+        <v>537.5155277236973</v>
       </c>
       <c r="K44" t="n">
-        <v>1366.152225520698</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2441.212191773558</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2441.212191773558</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>2441.212191773558</v>
+        <v>2588.899621423621</v>
       </c>
       <c r="O44" t="n">
-        <v>3421.391858343864</v>
+        <v>3569.079287993928</v>
       </c>
       <c r="P44" t="n">
-        <v>4249.70173317726</v>
+        <v>4397.389162827324</v>
       </c>
       <c r="Q44" t="n">
-        <v>4796.200519135856</v>
+        <v>4943.887948785919</v>
       </c>
       <c r="R44" t="n">
-        <v>4827.362305480145</v>
+        <v>5113.042013538975</v>
       </c>
       <c r="S44" t="n">
-        <v>4827.362305480145</v>
+        <v>5029.390139722812</v>
       </c>
       <c r="T44" t="n">
-        <v>4607.711867726043</v>
+        <v>4809.322912595851</v>
       </c>
       <c r="U44" t="n">
-        <v>4348.90635441592</v>
+        <v>4550.100609912867</v>
       </c>
       <c r="V44" t="n">
-        <v>3986.706193722606</v>
+        <v>4187.483659846694</v>
       </c>
       <c r="W44" t="n">
-        <v>3582.2675285065</v>
+        <v>3782.628205257727</v>
       </c>
       <c r="X44" t="n">
-        <v>3163.541854458671</v>
+        <v>3363.485741837038</v>
       </c>
       <c r="Y44" t="n">
-        <v>2755.672520131184</v>
+        <v>2955.199618136691</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>602.7189911008957</v>
+        <v>608.4325852620723</v>
       </c>
       <c r="C45" t="n">
-        <v>496.262529937538</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D45" t="n">
-        <v>401.1722410840912</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E45" t="n">
-        <v>307.0518264110449</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F45" t="n">
-        <v>223.6679880272065</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G45" t="n">
-        <v>138.2828982933904</v>
+        <v>143.996492454567</v>
       </c>
       <c r="H45" t="n">
-        <v>96.5472461096029</v>
+        <v>102.2608402707795</v>
       </c>
       <c r="I45" t="n">
-        <v>122.6109192700605</v>
+        <v>128.3245134312371</v>
       </c>
       <c r="J45" t="n">
-        <v>447.1692442362728</v>
+        <v>452.8828383974495</v>
       </c>
       <c r="K45" t="n">
-        <v>1101.875290861997</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1101.875290861997</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1101.875290861997</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1101.875290861997</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1101.875290861997</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1101.875290861997</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1642.614229494072</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1759.787007588412</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1696.331570036795</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1566.152926367397</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1389.816379367365</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1190.698861429364</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1005.376107162558</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>850.5086714014381</v>
+        <v>856.2222655626147</v>
       </c>
       <c r="Y45" t="n">
-        <v>724.0228921806588</v>
+        <v>729.7364863418354</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>971.4679399539593</v>
+        <v>952.7568773477097</v>
       </c>
       <c r="C46" t="n">
-        <v>799.3230178100442</v>
+        <v>780.1951658309349</v>
       </c>
       <c r="D46" t="n">
-        <v>633.8618143844269</v>
+        <v>614.3171730324577</v>
       </c>
       <c r="E46" t="n">
-        <v>464.5206000080241</v>
+        <v>444.5591692831952</v>
       </c>
       <c r="F46" t="n">
-        <v>288.2303353426405</v>
+        <v>267.8521152449516</v>
       </c>
       <c r="G46" t="n">
-        <v>123.0558497413278</v>
+        <v>102.2608402707795</v>
       </c>
       <c r="H46" t="n">
-        <v>123.0558497413278</v>
+        <v>102.2608402707795</v>
       </c>
       <c r="I46" t="n">
-        <v>96.5472461096029</v>
+        <v>102.2608402707795</v>
       </c>
       <c r="J46" t="n">
-        <v>183.5354265386328</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>458.7023763741086</v>
+        <v>463.5989800066052</v>
       </c>
       <c r="L46" t="n">
-        <v>877.3207534064097</v>
+        <v>881.8088617745666</v>
       </c>
       <c r="M46" t="n">
-        <v>1337.213115851663</v>
+        <v>1341.29272895548</v>
       </c>
       <c r="N46" t="n">
-        <v>1779.880414273648</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2199.958158763769</v>
+        <v>2203.220781338906</v>
       </c>
       <c r="P46" t="n">
-        <v>2547.873547998451</v>
+        <v>2550.727675309248</v>
       </c>
       <c r="Q46" t="n">
-        <v>2716.474818127123</v>
+        <v>2718.92045017358</v>
       </c>
       <c r="R46" t="n">
-        <v>2716.474818127123</v>
+        <v>2718.92045017358</v>
       </c>
       <c r="S46" t="n">
-        <v>2716.474818127123</v>
+        <v>2559.679081471577</v>
       </c>
       <c r="T46" t="n">
-        <v>2471.012161078439</v>
+        <v>2454.801834709348</v>
       </c>
       <c r="U46" t="n">
-        <v>2192.995949704404</v>
+        <v>2176.368833962453</v>
       </c>
       <c r="V46" t="n">
-        <v>1906.457230947694</v>
+        <v>1889.413325832884</v>
       </c>
       <c r="W46" t="n">
-        <v>1634.847615906846</v>
+        <v>1617.386921419175</v>
       </c>
       <c r="X46" t="n">
-        <v>1389.872650613118</v>
+        <v>1371.995166752588</v>
       </c>
       <c r="Y46" t="n">
-        <v>1162.869769300087</v>
+        <v>1144.575496066697</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7979,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,16 +7991,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>407.1525905495951</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8134,25 +8134,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>44.41372909529082</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -8213,19 +8213,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>52.91495433479296</v>
       </c>
       <c r="L5" t="n">
-        <v>407.1525905495951</v>
+        <v>630.4048323684627</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>630.4048323684627</v>
       </c>
       <c r="N5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -8234,7 +8234,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684626</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>30.91440664742004</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,16 +8374,16 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>218.0459320377777</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>58.38468441396117</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8392,7 +8392,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,25 +8608,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>239.5100572483141</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821538</v>
@@ -8699,10 +8699,10 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O11" t="n">
-        <v>857.0093219741821</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8927,7 +8927,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>709.7069233760728</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9006,22 +9006,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9170,7 +9170,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9179,7 +9179,7 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>827.2330372741667</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9407,10 +9407,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352478</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9480,7 +9480,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352606</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9717,7 +9717,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9881,10 +9881,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -10109,28 +10109,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>314.2706063049986</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10592,10 +10592,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>137.0929241373656</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>143.4079146352428</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10665,7 +10665,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10829,10 +10829,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>137.0929241373656</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>143.4079146352428</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10902,7 +10902,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -11066,10 +11066,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>184.3280704698527</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.4079146352428</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.4079146352392</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>31.47655186291831</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>270.9771305717109</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23464,7 +23464,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>188.1617754937096</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627252</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>26.97216184894938</v>
       </c>
     </row>
     <row r="17">
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>149.8097733866541</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23902,7 +23902,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24136,13 +24136,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>103.1553467313936</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>160.7958207444079</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>128.462878909329</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627261</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25087,7 +25087,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627267</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.0905310873978</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>87.36072825394001</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>20.79102160255044</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>130.9928159404444</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.0905310873978</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,7 +25606,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>239.1445657969338</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25637,7 +25637,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>121.1673571850561</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>163.8065913913611</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>126.0677772390319</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>102.986369995717</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.36072825394001</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482737</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>188.5743969728418</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.40273359886996</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.0905310873978</v>
+        <v>138.503152566529</v>
       </c>
       <c r="I46" t="n">
-        <v>61.11721065853234</v>
+        <v>87.77334973307121</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>20.79102160255044</v>
+        <v>21.20364308168164</v>
       </c>
       <c r="S46" t="n">
-        <v>157.2363335358519</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>139.5921776627216</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>499789.6378808633</v>
+        <v>510358.2399002594</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>499789.6378808633</v>
+        <v>512261.1399385307</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>506570.228188169</v>
+        <v>528194.7520187334</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>506570.228188169</v>
+        <v>528194.7520187336</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>516239.628692214</v>
+        <v>528194.7520187335</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>528194.7520187334</v>
+        <v>528194.7520187335</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>528194.7520187336</v>
+        <v>528194.7520187334</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>528194.7520187335</v>
+        <v>528194.7520187334</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>528338.4996126328</v>
+        <v>528194.7520187334</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>528338.4996126328</v>
+        <v>528194.7520187334</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>518669.0991085879</v>
+        <v>528194.7520187338</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>506713.9757820683</v>
+        <v>528194.7520187335</v>
       </c>
     </row>
   </sheetData>
@@ -26314,22 +26314,22 @@
         <v>469128.9049041075</v>
       </c>
       <c r="C2" t="n">
-        <v>469128.9049041075</v>
+        <v>469128.9049041074</v>
       </c>
       <c r="D2" t="n">
         <v>469128.9049041074</v>
       </c>
       <c r="E2" t="n">
-        <v>442126.8289758636</v>
+        <v>461000.3861201833</v>
       </c>
       <c r="F2" t="n">
-        <v>442126.8289758636</v>
+        <v>461000.3861201833</v>
       </c>
       <c r="G2" t="n">
-        <v>450566.1354038029</v>
+        <v>461000.3861201832</v>
       </c>
       <c r="H2" t="n">
-        <v>461000.3861201833</v>
+        <v>461000.3861201832</v>
       </c>
       <c r="I2" t="n">
         <v>461000.3861201833</v>
@@ -26344,16 +26344,16 @@
         <v>461000.3861201833</v>
       </c>
       <c r="M2" t="n">
-        <v>461206.9678695366</v>
+        <v>461000.3861201833</v>
       </c>
       <c r="N2" t="n">
-        <v>461206.9678695365</v>
+        <v>461000.3861201834</v>
       </c>
       <c r="O2" t="n">
-        <v>452767.6614415973</v>
+        <v>461000.3861201837</v>
       </c>
       <c r="P2" t="n">
-        <v>442333.4107252168</v>
+        <v>461000.3861201833</v>
       </c>
     </row>
     <row r="3">
@@ -26366,43 +26366,43 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.7678950159</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998302</v>
       </c>
       <c r="E3" t="n">
-        <v>234126.826365935</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>8557.553879114083</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>10415.38475254595</v>
+        <v>1.84042391992989e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>1.027878397508175e-09</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449892</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877231</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622516</v>
       </c>
       <c r="M3" t="n">
-        <v>195343.3712995836</v>
+        <v>152200.1709379875</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.546853561034522e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>199828.8262465156</v>
       </c>
       <c r="C4" t="n">
-        <v>199828.8262465156</v>
+        <v>163226.898793246</v>
       </c>
       <c r="D4" t="n">
-        <v>199828.8262465156</v>
+        <v>156636.6412526738</v>
       </c>
       <c r="E4" t="n">
-        <v>65216.72000285307</v>
+        <v>68000.69828933282</v>
       </c>
       <c r="F4" t="n">
-        <v>65216.72000285307</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="G4" t="n">
-        <v>66461.57520787216</v>
+        <v>68000.69828933278</v>
       </c>
       <c r="H4" t="n">
+        <v>68000.69828933278</v>
+      </c>
+      <c r="I4" t="n">
         <v>68000.69828933281</v>
       </c>
-      <c r="I4" t="n">
-        <v>68000.69828933223</v>
-      </c>
       <c r="J4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="K4" t="n">
         <v>68000.69828933279</v>
       </c>
       <c r="L4" t="n">
-        <v>68000.69828933277</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="M4" t="n">
-        <v>68354.08299527944</v>
+        <v>68000.69828933282</v>
       </c>
       <c r="N4" t="n">
-        <v>68354.08299527944</v>
+        <v>68000.69828933285</v>
       </c>
       <c r="O4" t="n">
-        <v>67109.22779026037</v>
+        <v>68000.69828933309</v>
       </c>
       <c r="P4" t="n">
-        <v>65570.1047087997</v>
+        <v>68000.69828933306</v>
       </c>
     </row>
     <row r="5">
@@ -26470,25 +26470,25 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800253</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73472.87436677993</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>73472.87436677993</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>75371.18794048931</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
+        <v>77718.23860579256</v>
+      </c>
+      <c r="I5" t="n">
         <v>77718.23860579252</v>
-      </c>
-      <c r="I5" t="n">
-        <v>77718.23860579275</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77655.95995743989</v>
+        <v>77718.23860579247</v>
       </c>
       <c r="N5" t="n">
-        <v>77655.95995743989</v>
+        <v>77718.23860579247</v>
       </c>
       <c r="O5" t="n">
-        <v>75757.64638373051</v>
+        <v>77718.23860579249</v>
       </c>
       <c r="P5" t="n">
-        <v>73410.5957184273</v>
+        <v>77718.23860579243</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>67683.98986065964</v>
       </c>
       <c r="C6" t="n">
-        <v>209875.2905203696</v>
+        <v>167358.0244078431</v>
       </c>
       <c r="D6" t="n">
-        <v>209875.2905203695</v>
+        <v>226752.1435396929</v>
       </c>
       <c r="E6" t="n">
-        <v>69310.40824029566</v>
+        <v>132903.1156646255</v>
       </c>
       <c r="F6" t="n">
-        <v>303437.2346062306</v>
+        <v>315258.2248856753</v>
       </c>
       <c r="G6" t="n">
-        <v>300175.8183763273</v>
+        <v>315258.2248856752</v>
       </c>
       <c r="H6" t="n">
-        <v>304866.064472512</v>
+        <v>315258.224885675</v>
       </c>
       <c r="I6" t="n">
-        <v>315281.4492250574</v>
+        <v>315258.2248856755</v>
       </c>
       <c r="J6" t="n">
-        <v>204266.9838800689</v>
+        <v>204243.7595406852</v>
       </c>
       <c r="K6" t="n">
-        <v>315281.449225058</v>
+        <v>262212.370246903</v>
       </c>
       <c r="L6" t="n">
-        <v>315281.4492250581</v>
+        <v>305865.9231590529</v>
       </c>
       <c r="M6" t="n">
-        <v>119853.5536172338</v>
+        <v>163058.0539476878</v>
       </c>
       <c r="N6" t="n">
-        <v>315196.9249168172</v>
+        <v>315258.2248856754</v>
       </c>
       <c r="O6" t="n">
-        <v>309900.7872676065</v>
+        <v>315258.2248856753</v>
       </c>
       <c r="P6" t="n">
-        <v>303352.7102979898</v>
+        <v>315258.2248856752</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4126214791313976</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4126214791313976</v>
+        <v>5.005947602801767e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4126214791313976</v>
+        <v>1.951458179255752e-13</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4126214791313976</v>
+        <v>1.951458179255752e-13</v>
       </c>
     </row>
     <row r="3">
@@ -26790,25 +26790,25 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684627</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1208.435433664144</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>1208.435433664144</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
-        <v>1239.657696389627</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
+        <v>1278.260503384746</v>
+      </c>
+      <c r="I4" t="n">
         <v>1278.260503384745</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1278.260503384749</v>
       </c>
       <c r="J4" t="n">
         <v>1278.260503384745</v>
@@ -26820,16 +26820,16 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1276.665646090638</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
-        <v>1276.665646090638</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1245.443383365155</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1206.840576370036</v>
+        <v>1278.260503384744</v>
       </c>
     </row>
   </sheetData>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.82703532317577e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4126214791314321</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.933566951293152e-13</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27012,37 +27012,37 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483584</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939419</v>
       </c>
       <c r="E4" t="n">
-        <v>784.1395761440392</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>31.22226272548327</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>38.60280699511858</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="I4" t="n">
-        <v>3.865352482534945e-12</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201005</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483584</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939419</v>
       </c>
       <c r="M4" t="n">
-        <v>782.5447188499318</v>
+        <v>610.7452967768877</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>4.82703532317577e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27258,22 +27258,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483584</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939419</v>
       </c>
       <c r="M4" t="n">
-        <v>784.1395761440392</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>31.22226272548327</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>38.60280699511858</v>
+        <v>6.821210263296962e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27379,10 +27379,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>72.71868052833514</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>398.1024113501458</v>
       </c>
     </row>
     <row r="3">
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>242.8241876663074</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>72.78996144619879</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>113.7278999628231</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -27673,16 +27673,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>70.23482399979457</v>
       </c>
     </row>
     <row r="6">
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27828,19 +27828,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>261.1767494089935</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>108.8170133382552</v>
       </c>
     </row>
     <row r="8">
@@ -27856,10 +27856,10 @@
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>105.9706131526086</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
@@ -27913,7 +27913,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>154.5594875100819</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,19 +28062,19 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>79.64395877249362</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>-7.230850401199483e-13</v>
       </c>
     </row>
     <row r="18">
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>-1.350599632132798e-12</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29098,7 +29098,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>-1.620719558559358e-11</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -29755,7 +29755,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0.4126214791313976</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.4126214791313976</v>
+        <v>1.350599632132798e-12</v>
       </c>
       <c r="C38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.4126214791313976</v>
+        <v>5.005947602801767e-14</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.4126214791313976</v>
+        <v>1.477928890381008e-12</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4126214791313976</v>
+        <v>1.951458179255752e-13</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.4126214791313976</v>
+        <v>1.951458179255752e-13</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4126214791313976</v>
+        <v>1.951458179255752e-13</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4126214791313976</v>
+        <v>1.951458179255752e-13</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4126214791313976</v>
+        <v>1.951458179255752e-13</v>
       </c>
       <c r="F43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4126214791313976</v>
+        <v>1.951458179255752e-13</v>
       </c>
       <c r="H43" t="n">
-        <v>0.4126214791313976</v>
+        <v>1.951458179255752e-13</v>
       </c>
       <c r="I43" t="n">
-        <v>0.4126214791313976</v>
+        <v>1.951458179255752e-13</v>
       </c>
       <c r="J43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0.4126214791313976</v>
+        <v>1.470710478479121e-11</v>
       </c>
       <c r="T43" t="n">
-        <v>0.4126214791313976</v>
+        <v>1.951458179255752e-13</v>
       </c>
       <c r="U43" t="n">
-        <v>0.4126214791313976</v>
+        <v>1.951458179255752e-13</v>
       </c>
       <c r="V43" t="n">
-        <v>0.4126214791313976</v>
+        <v>1.951458179255752e-13</v>
       </c>
       <c r="W43" t="n">
-        <v>0.4126214791313976</v>
+        <v>1.951458179255752e-13</v>
       </c>
       <c r="X43" t="n">
-        <v>0.4126214791313976</v>
+        <v>1.951458179255752e-13</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.4126214791313976</v>
+        <v>1.951458179255752e-13</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4126214791313976</v>
+        <v>1.951458179255752e-13</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.4126214791313976</v>
+        <v>4.952198651153594e-12</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>1.951458179255752e-13</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.4126214791313976</v>
+        <v>1.951458179255752e-13</v>
       </c>
       <c r="C46" t="n">
-        <v>0.4126214791313976</v>
+        <v>1.951458179255752e-13</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4126214791313976</v>
+        <v>1.951458179255752e-13</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4126214791313976</v>
+        <v>1.951458179255752e-13</v>
       </c>
       <c r="F46" t="n">
-        <v>0.4126214791313976</v>
+        <v>1.951458179255752e-13</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4126214791313976</v>
+        <v>1.951458179255752e-13</v>
       </c>
       <c r="H46" t="n">
-        <v>0.4126214791313976</v>
+        <v>1.951458179255752e-13</v>
       </c>
       <c r="I46" t="n">
-        <v>0.4126214791313976</v>
+        <v>1.951458179255752e-13</v>
       </c>
       <c r="J46" t="n">
-        <v>0.4126214791313976</v>
+        <v>1.951458179255752e-13</v>
       </c>
       <c r="K46" t="n">
-        <v>0.4126214791313976</v>
+        <v>1.951458179255752e-13</v>
       </c>
       <c r="L46" t="n">
-        <v>0.4126214791313976</v>
+        <v>1.951458179255752e-13</v>
       </c>
       <c r="M46" t="n">
-        <v>0.4126214791313976</v>
+        <v>1.951458179255752e-13</v>
       </c>
       <c r="N46" t="n">
-        <v>0.4126214791313976</v>
+        <v>1.951458179255752e-13</v>
       </c>
       <c r="O46" t="n">
-        <v>0.4126214791313976</v>
+        <v>1.951458179255752e-13</v>
       </c>
       <c r="P46" t="n">
-        <v>0.4126214791313976</v>
+        <v>1.951458179255752e-13</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.4126214791313976</v>
+        <v>1.951458179255752e-13</v>
       </c>
       <c r="R46" t="n">
-        <v>0.4126214791313976</v>
+        <v>1.951458179255752e-13</v>
       </c>
       <c r="S46" t="n">
-        <v>0.4126214791313976</v>
+        <v>1.951458179255752e-13</v>
       </c>
       <c r="T46" t="n">
-        <v>0.4126214791313976</v>
+        <v>1.951458179255752e-13</v>
       </c>
       <c r="U46" t="n">
-        <v>0.4126214791313976</v>
+        <v>1.951458179255752e-13</v>
       </c>
       <c r="V46" t="n">
-        <v>0.4126214791313976</v>
+        <v>1.951458179255752e-13</v>
       </c>
       <c r="W46" t="n">
-        <v>0.4126214791313976</v>
+        <v>1.951458179255752e-13</v>
       </c>
       <c r="X46" t="n">
-        <v>0.4126214791313976</v>
+        <v>1.951458179255752e-13</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.4126214791313976</v>
+        <v>1.951458179255752e-13</v>
       </c>
     </row>
   </sheetData>
@@ -34699,7 +34699,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,16 +34711,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>407.1525905495951</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34854,25 +34854,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>44.41372909529082</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>52.91495433479296</v>
       </c>
       <c r="L5" t="n">
-        <v>407.1525905495951</v>
+        <v>630.4048323684627</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>630.4048323684627</v>
       </c>
       <c r="N5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -34954,7 +34954,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35009,16 +35009,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684626</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>30.91440664742004</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>218.0459320377777</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>58.38468441396117</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,25 +35328,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>239.5100572483141</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35407,10 +35407,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
@@ -35419,10 +35419,10 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O11" t="n">
-        <v>857.0093219741821</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908063</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35574,13 +35574,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645584</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,10 +35644,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>709.7069233760728</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
@@ -35656,7 +35656,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35726,22 +35726,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35881,16 +35881,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473917</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -35899,7 +35899,7 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>827.2330372741667</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36039,16 +36039,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
@@ -36121,16 +36121,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352478</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36200,7 +36200,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36285,13 +36285,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36358,7 +36358,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -36367,7 +36367,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352606</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36437,7 +36437,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36522,7 +36522,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
@@ -36601,10 +36601,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36759,13 +36759,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645584</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
@@ -36829,28 +36829,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>314.2706063049986</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -37078,7 +37078,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37312,10 +37312,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>137.0929241373656</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>143.4079146352428</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.86684891821199</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>277.946413975228</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.8468454871729</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>464.5377398436897</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
-        <v>447.1386852747321</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>424.3209540304258</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37549,10 +37549,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>137.0929241373656</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>143.4079146352428</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.86684891821207</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.946413975228</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.8468454871729</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.53773984369</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
-        <v>447.1386852747321</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>424.3209540304258</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,16 +37780,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>184.3280704698527</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.4079146352428</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37801,7 +37801,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.86684891821187</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>277.9464139752279</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.8468454871729</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.5377398436901</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
-        <v>447.1386852747321</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>424.3209540304254</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
@@ -38026,19 +38026,19 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.4079146352392</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>31.47655186291831</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38114,7 +38114,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132079</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.86684891821207</v>
+        <v>87.45422743908087</v>
       </c>
       <c r="K46" t="n">
-        <v>277.946413975228</v>
+        <v>277.5337924960967</v>
       </c>
       <c r="L46" t="n">
-        <v>422.8468454871729</v>
+        <v>422.4342240080417</v>
       </c>
       <c r="M46" t="n">
-        <v>464.53773984369</v>
+        <v>464.1251183645588</v>
       </c>
       <c r="N46" t="n">
-        <v>447.1386852747321</v>
+        <v>446.7260637956008</v>
       </c>
       <c r="O46" t="n">
-        <v>424.3209540304258</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P46" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
